--- a/DummyJSON/Quotes CollectionT Cs.xlsx
+++ b/DummyJSON/Quotes CollectionT Cs.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Mohamed Nsser\APIs\Project\APIs-Postman\DummyJSON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E63392D-4A20-488F-A986-9EEB87A32AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46EB6AE-279C-4CE5-8C25-4D37DB9846E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="959" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="959" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Get all quotes" sheetId="1" r:id="rId1"/>
-    <sheet name="Get a single quote" sheetId="2" r:id="rId2"/>
-    <sheet name="Get a random quote" sheetId="3" r:id="rId3"/>
+    <sheet name="Get a single quote" sheetId="2" r:id="rId1"/>
+    <sheet name="Get a random quote" sheetId="3" r:id="rId2"/>
+    <sheet name="Get all quotes" sheetId="1" r:id="rId3"/>
     <sheet name="Limit and skip quotes" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Get all quotes'!$A$1:$H$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Get all quotes'!$A$1:$H$22</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1442,500 +1442,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="48" customHeight="1" thickBot="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="32.25" thickBot="1">
-      <c r="A2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" ht="32.25" thickBot="1">
-      <c r="A3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" ht="32.25" thickBot="1">
-      <c r="A4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" ht="32.25" thickBot="1">
-      <c r="A5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" ht="32.25" thickBot="1">
-      <c r="A6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" ht="32.25" thickBot="1">
-      <c r="A7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" ht="32.25" thickBot="1">
-      <c r="A8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" ht="32.25" thickBot="1">
-      <c r="A9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" ht="32.25" thickBot="1">
-      <c r="A10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" ht="32.25" thickBot="1">
-      <c r="A11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" ht="32.25" thickBot="1">
-      <c r="A12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" ht="32.25" thickBot="1">
-      <c r="A13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" ht="32.25" thickBot="1">
-      <c r="A14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" ht="32.25" thickBot="1">
-      <c r="A15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" ht="32.25" thickBot="1">
-      <c r="A16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" ht="32.25" thickBot="1">
-      <c r="A17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" ht="32.25" thickBot="1">
-      <c r="A18" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" ht="32.25" thickBot="1">
-      <c r="A19" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" ht="32.25" thickBot="1">
-      <c r="A20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" ht="32.25" thickBot="1">
-      <c r="A21" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" ht="48" thickBot="1">
-      <c r="A22" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:H22" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
-      <formula>"Pending"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
-      <formula>"Pass"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
-      <formula>"Pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAAEFEE5-E5CE-4FF0-83EF-DA5781B077AF}">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D11" sqref="D11:D16"/>
     </sheetView>
   </sheetViews>
@@ -2297,7 +1808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F883F434-17A4-4ED2-BEF1-1D36DE4D334E}">
   <dimension ref="A1:H55"/>
   <sheetViews>
@@ -2780,12 +2291,501 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="48" customHeight="1" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="72.75" customHeight="1" thickBot="1">
+      <c r="A2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="72.75" customHeight="1" thickBot="1">
+      <c r="A3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="72.75" customHeight="1" thickBot="1">
+      <c r="A4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" ht="72.75" customHeight="1" thickBot="1">
+      <c r="A5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="72.75" customHeight="1" thickBot="1">
+      <c r="A6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="72.75" customHeight="1" thickBot="1">
+      <c r="A7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" ht="72.75" customHeight="1" thickBot="1">
+      <c r="A8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" ht="72.75" customHeight="1" thickBot="1">
+      <c r="A9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" ht="72.75" customHeight="1" thickBot="1">
+      <c r="A10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" ht="72.75" customHeight="1" thickBot="1">
+      <c r="A11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" ht="72.75" customHeight="1" thickBot="1">
+      <c r="A12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" ht="72.75" customHeight="1" thickBot="1">
+      <c r="A13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" ht="72.75" customHeight="1" thickBot="1">
+      <c r="A14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" ht="72.75" customHeight="1" thickBot="1">
+      <c r="A15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" ht="72.75" customHeight="1" thickBot="1">
+      <c r="A16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" ht="72.75" customHeight="1" thickBot="1">
+      <c r="A17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" ht="72.75" customHeight="1" thickBot="1">
+      <c r="A18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" ht="72.75" customHeight="1" thickBot="1">
+      <c r="A19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" ht="72.75" customHeight="1" thickBot="1">
+      <c r="A20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" ht="72.75" customHeight="1" thickBot="1">
+      <c r="A21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" ht="72.75" customHeight="1" thickBot="1">
+      <c r="A22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H22" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B84067-911D-41E5-866B-7DD9FA34BF1C}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
